--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>Profile</t>
   </si>
@@ -47,27 +47,39 @@
     <t>Method</t>
   </si>
   <si>
+    <t>date-tested-for-hiv</t>
+  </si>
+  <si>
+    <t>HIVTestDateObservation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HIV Case Report Observation codes#DATE-TESTED-FOR-HIV</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>death-obs</t>
   </si>
   <si>
     <t>Death Obs</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>HIV Case Report Observation codes#CAUSE-OF-DEATH</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>hiv-acutal-recency-test-result</t>
   </si>
   <si>
@@ -75,9 +87,6 @@
   </si>
   <si>
     <t>HIV Case Report Observation codes#HIV-RECENCY-TEST-CONDUCTED</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
     <t>string</t>
@@ -277,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,10 +382,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>17</v>
@@ -390,19 +399,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>13</v>
@@ -411,7 +420,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>17</v>
@@ -425,10 +434,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -437,16 +446,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>
@@ -463,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -472,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
@@ -481,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>17</v>
@@ -495,28 +504,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>15</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -530,10 +539,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -542,16 +551,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>17</v>
@@ -565,28 +574,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -600,10 +609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -612,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
@@ -621,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -647,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -670,10 +679,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -682,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -700,6 +709,41 @@
         <v>13</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>13</v>
       </c>
     </row>
